--- a/biology/Botanique/Salicornia_neei/Salicornia_neei.xlsx
+++ b/biology/Botanique/Salicornia_neei/Salicornia_neei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salicornia neei est une espèce de plantes à fleurs de la famille des Amaranthaceae.
-Elle est originaire du Venezuela, des îles Galápagos, et de l'Equateur (pays) jusqu'au sud du Brésil et du sud de l'Amérique du sud[2].
+Elle est originaire du Venezuela, des îles Galápagos, et de l'Equateur (pays) jusqu'au sud du Brésil et du sud de l'Amérique du sud.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Elle a été décrite pour la première fois en 1817[3].
-Elle a comme synonyme homotypique[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Elle a été décrite pour la première fois en 1817.
+Elle a comme synonyme homotypique :
 Sarcocornia neei (Lag.) M.A.Alonso &amp; M.B.Crespo in Ann. Bot. Fenn. 45: 250 (2008)
 Elle a comme synonymes hétérotypiques :
 Heterotypic Synonyms
